--- a/Dragonfall/gameData/shared/Items.xlsx
+++ b/Dragonfall/gameData/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="0" windowWidth="37860" windowHeight="20060" tabRatio="381"/>
+    <workbookView xWindow="740" yWindow="0" windowWidth="37660" windowHeight="20220" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="222">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -683,9 +683,6 @@
   <si>
     <t>FLOAT_effect2</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>masterOfDefender</t>
   </si>
   <si>
     <t>quarterMaster</t>
@@ -886,7 +883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -945,19 +942,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -965,7 +949,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="716">
+  <cellStyleXfs count="732">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1686,8 +1670,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1716,13 +1716,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1735,7 +1732,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="716">
+  <cellStyles count="732">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2096,6 +2093,14 @@
     <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="730" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2449,6 +2454,14 @@
     <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2901,7 +2914,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G13"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2946,7 +2959,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2972,7 +2985,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2998,7 +3011,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -3024,7 +3037,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -3050,7 +3063,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -3076,7 +3089,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -3102,7 +3115,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -3215,13 +3228,13 @@
         <v>46</v>
       </c>
       <c r="E12" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G12" s="1">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>44</v>
@@ -3241,13 +3254,13 @@
         <v>46</v>
       </c>
       <c r="E13" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G13" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>44</v>
@@ -3527,13 +3540,13 @@
         <v>166</v>
       </c>
       <c r="E24" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>167</v>
@@ -3553,13 +3566,13 @@
         <v>166</v>
       </c>
       <c r="E25" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F25" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="G25" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>166</v>
@@ -3955,30 +3968,30 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:8" s="12" customFormat="1" ht="20" customHeight="1">
+      <c r="A41" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="12">
+        <v>41</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="12">
+        <v>50</v>
+      </c>
+      <c r="F41" s="12">
+        <v>250</v>
+      </c>
+      <c r="G41" s="12">
+        <v>250</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>221</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="13">
-        <v>41</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="13">
-        <v>50</v>
-      </c>
-      <c r="F41" s="13">
-        <v>250</v>
-      </c>
-      <c r="G41" s="13">
-        <v>250</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3998,7 +4011,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5662,7 +5675,7 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="7">
         <v>10</v>
@@ -5688,7 +5701,7 @@
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="7">
         <v>100</v>
@@ -5714,7 +5727,7 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="7">
         <v>1000</v>
@@ -6832,7 +6845,7 @@
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B47" s="7">
         <v>500</v>
@@ -7288,10 +7301,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7311,159 +7324,148 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="11">
         <v>0.2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="11">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="11">
         <v>0.2</v>
       </c>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="12">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="11">
         <v>0.2</v>
       </c>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="12">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="11">
         <v>0.2</v>
       </c>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B18" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="C18" s="12"/>
+      <c r="C17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Dragonfall/gameData/shared/Items.xlsx
+++ b/Dragonfall/gameData/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="0" windowWidth="37660" windowHeight="20220" tabRatio="381"/>
+    <workbookView xWindow="1760" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="230">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -778,6 +778,38 @@
   </si>
   <si>
     <t>sweepScroll</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:1:9,technologyMaterials:trainingFigure:10:8,technologyMaterials:bowTarget:10:8,technologyMaterials:saddle:10:8,technologyMaterials:ironPart:10:8,items:warSpeedupClass_1:1:9,dragonMaterials:runes_1:1:5,dragonMaterials:redCrystal_1:1:8,dragonMaterials:blueCrystal_1:1:8,dragonMaterials:greenCrystal_1:1:8,dragonMaterials:ingo_1:1:5,dragonMaterials:runes_2:1:2,dragonMaterials:redCrystal_2:1:4,dragonMaterials:blueCrystal_2:1:4,dragonMaterials:greenCrystal_2:1:4,dragonMaterials:ingo_2:1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:5:9,technologyMaterials:trainingFigure:20:8,technologyMaterials:bowTarget:20:8,technologyMaterials:saddle:20:8,technologyMaterials:ironPart:20:8,items:warSpeedupClass_1:3:9,dragonMaterials:runes_2:1:5,dragonMaterials:redCrystal_2:1:8,dragonMaterials:blueCrystal_2:1:8,dragonMaterials:greenCrystal_2:1:8,dragonMaterials:ingo_2:1:5,dragonMaterials:runes_3:1:2,dragonMaterials:redCrystal_3:1:4,dragonMaterials:blueCrystal_3:1:4,dragonMaterials:greenCrystal_3:1:4,dragonMaterials:ingo_3:1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1:9,technologyMaterials:trainingFigure:30:8,technologyMaterials:bowTarget:30:8,technologyMaterials:saddle:30:8,technologyMaterials:ironPart:30:8,items:warSpeedupClass_2:2:9,dragonMaterials:runes_3:1:5,dragonMaterials:redCrystal_3:1:8,dragonMaterials:blueCrystal_3:1:8,dragonMaterials:greenCrystal_3:1:8,dragonMaterials:ingo_3:1:5,dragonMaterials:runes_4:1:2,dragonMaterials:redCrystal_4:1:4,dragonMaterials:blueCrystal_4:1:4,dragonMaterials:greenCrystal_4:1:4,dragonMaterials:ingo_4:1:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -949,7 +981,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="732">
+  <cellStyleXfs count="764">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1686,8 +1718,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1731,8 +1795,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="732">
+  <cellStyles count="764">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2101,6 +2168,22 @@
     <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="728" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="762" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2462,6 +2545,22 @@
     <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="763" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2911,10 +3010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3993,6 +4092,87 @@
       <c r="H41" s="14" t="s">
         <v>221</v>
       </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" s="1">
+        <v>150</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G42" s="1">
+        <v>7500</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="1">
+        <v>360</v>
+      </c>
+      <c r="F43" s="1">
+        <v>18000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>18000</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="1">
+        <v>750</v>
+      </c>
+      <c r="F44" s="1">
+        <v>37500</v>
+      </c>
+      <c r="G44" s="1">
+        <v>37500</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20" customHeight="1">
+      <c r="B45" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5634,8 +5814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+    <sheetView showRuler="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/Dragonfall/gameData/shared/Items.xlsx
+++ b/Dragonfall/gameData/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="381"/>
+    <workbookView xWindow="600" yWindow="0" windowWidth="35720" windowHeight="17700" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -3012,14 +3012,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1"/>
-    <col min="2" max="2" width="131.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="147.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1"/>
     <col min="4" max="4" width="20.6640625" style="5"/>
     <col min="5" max="7" width="20.6640625" style="1"/>
@@ -3838,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="7">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="C32" s="1">
         <v>32</v>
@@ -3847,7 +3847,7 @@
         <v>166</v>
       </c>
       <c r="E32" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="1">
         <v>25000</v>
@@ -3864,7 +3864,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="7">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="C33" s="2">
         <v>33</v>
@@ -3873,7 +3873,7 @@
         <v>166</v>
       </c>
       <c r="E33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F33" s="1">
         <v>200000</v>
@@ -3890,7 +3890,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="7">
-        <v>25000</v>
+        <v>200000</v>
       </c>
       <c r="C34" s="1">
         <v>34</v>
@@ -3899,7 +3899,7 @@
         <v>166</v>
       </c>
       <c r="E34" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="F34" s="1">
         <v>600000</v>

--- a/Dragonfall/gameData/shared/Items.xlsx
+++ b/Dragonfall/gameData/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="0" windowWidth="35720" windowHeight="17700" tabRatio="381"/>
+    <workbookView xWindow="920" yWindow="360" windowWidth="35720" windowHeight="17700" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -3012,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3838,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="7">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="C32" s="1">
         <v>32</v>
@@ -3864,7 +3864,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="7">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="C33" s="2">
         <v>33</v>
@@ -3890,7 +3890,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="7">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="C34" s="1">
         <v>34</v>

--- a/Dragonfall/gameData/shared/Items.xlsx
+++ b/Dragonfall/gameData/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="360" windowWidth="35720" windowHeight="17700" tabRatio="381"/>
+    <workbookView xWindow="820" yWindow="0" windowWidth="35720" windowHeight="17700" tabRatio="381" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="234">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -199,621 +199,639 @@
     <t>masterOfDefender_1</t>
   </si>
   <si>
+    <t>quarterMaster_1</t>
+  </si>
+  <si>
+    <t>quarterMaster_2</t>
+  </si>
+  <si>
+    <t>quarterMaster_3</t>
+  </si>
+  <si>
+    <t>fogOfTrick_1</t>
+  </si>
+  <si>
+    <t>fogOfTrick_2</t>
+  </si>
+  <si>
+    <t>fogOfTrick_3</t>
+  </si>
+  <si>
+    <t>woodBonus_1</t>
+  </si>
+  <si>
+    <t>woodBonus_2</t>
+  </si>
+  <si>
+    <t>woodBonus_3</t>
+  </si>
+  <si>
+    <t>stoneBonus_1</t>
+  </si>
+  <si>
+    <t>stoneBonus_2</t>
+  </si>
+  <si>
+    <t>stoneBonus_3</t>
+  </si>
+  <si>
+    <t>ironBonus_1</t>
+  </si>
+  <si>
+    <t>ironBonus_2</t>
+  </si>
+  <si>
+    <t>ironBonus_3</t>
+  </si>
+  <si>
+    <t>foodBonus_1</t>
+  </si>
+  <si>
+    <t>foodBonus_2</t>
+  </si>
+  <si>
+    <t>foodBonus_3</t>
+  </si>
+  <si>
+    <t>citizenBonus_1</t>
+  </si>
+  <si>
+    <t>citizenBonus_2</t>
+  </si>
+  <si>
+    <t>citizenBonus_3</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_1</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_2</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_3</t>
+  </si>
+  <si>
+    <t>troopSizeBonus_1</t>
+  </si>
+  <si>
+    <t>troopSizeBonus_2</t>
+  </si>
+  <si>
+    <t>troopSizeBonus_3</t>
+  </si>
+  <si>
+    <t>dragonHpBonus_1</t>
+  </si>
+  <si>
+    <t>dragonHpBonus_2</t>
+  </si>
+  <si>
+    <t>dragonHpBonus_3</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_1</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_2</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_3</t>
+  </si>
+  <si>
+    <t>unitHpBonus_1</t>
+  </si>
+  <si>
+    <t>unitHpBonus_2</t>
+  </si>
+  <si>
+    <t>unitHpBonus_3</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus_1</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus_2</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus_3</t>
+  </si>
+  <si>
+    <t>archerAtkBonus_1</t>
+  </si>
+  <si>
+    <t>archerAtkBonus_2</t>
+  </si>
+  <si>
+    <t>archerAtkBonus_3</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus_1</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus_2</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus_3</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus_1</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus_2</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus_3</t>
+  </si>
+  <si>
+    <t>woodClass_1</t>
+  </si>
+  <si>
+    <t>woodClass_2</t>
+  </si>
+  <si>
+    <t>woodClass_3</t>
+  </si>
+  <si>
+    <t>woodClass_4</t>
+  </si>
+  <si>
+    <t>woodClass_5</t>
+  </si>
+  <si>
+    <t>woodClass_6</t>
+  </si>
+  <si>
+    <t>woodClass_7</t>
+  </si>
+  <si>
+    <t>stoneClass_1</t>
+  </si>
+  <si>
+    <t>stoneClass_2</t>
+  </si>
+  <si>
+    <t>stoneClass_3</t>
+  </si>
+  <si>
+    <t>stoneClass_4</t>
+  </si>
+  <si>
+    <t>stoneClass_5</t>
+  </si>
+  <si>
+    <t>stoneClass_6</t>
+  </si>
+  <si>
+    <t>stoneClass_7</t>
+  </si>
+  <si>
+    <t>ironClass_1</t>
+  </si>
+  <si>
+    <t>ironClass_2</t>
+  </si>
+  <si>
+    <t>ironClass_3</t>
+  </si>
+  <si>
+    <t>ironClass_4</t>
+  </si>
+  <si>
+    <t>ironClass_5</t>
+  </si>
+  <si>
+    <t>ironClass_6</t>
+  </si>
+  <si>
+    <t>ironClass_7</t>
+  </si>
+  <si>
+    <t>foodClass_1</t>
+  </si>
+  <si>
+    <t>foodClass_2</t>
+  </si>
+  <si>
+    <t>foodClass_3</t>
+  </si>
+  <si>
+    <t>foodClass_4</t>
+  </si>
+  <si>
+    <t>foodClass_5</t>
+  </si>
+  <si>
+    <t>foodClass_6</t>
+  </si>
+  <si>
+    <t>foodClass_7</t>
+  </si>
+  <si>
+    <t>coinClass_1</t>
+  </si>
+  <si>
+    <t>coinClass_2</t>
+  </si>
+  <si>
+    <t>coinClass_3</t>
+  </si>
+  <si>
+    <t>coinClass_4</t>
+  </si>
+  <si>
+    <t>coinClass_5</t>
+  </si>
+  <si>
+    <t>coinClass_6</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_2</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_3</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_4</t>
+  </si>
+  <si>
+    <t>speedup_4</t>
+  </si>
+  <si>
+    <t>speedup_5</t>
+  </si>
+  <si>
+    <t>speedup_6</t>
+  </si>
+  <si>
+    <t>speedup_7</t>
+  </si>
+  <si>
+    <t>speedup_8</t>
+  </si>
+  <si>
+    <t>warSpeedupClass_1</t>
+  </si>
+  <si>
+    <t>warSpeedupClass_2</t>
+  </si>
+  <si>
+    <t>masterOfDefender</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarterMaster</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fogOfTrick</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonExpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>marchSpeedBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_isAdvancedItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_buyPriceInAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_isSell</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_price</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_sellPriceInAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>movingConstruction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinClass_7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarterMaster</t>
+  </si>
+  <si>
+    <t>woodBonus</t>
+  </si>
+  <si>
+    <t>stoneBonus</t>
+  </si>
+  <si>
+    <t>ironBonus</t>
+  </si>
+  <si>
+    <t>foodBonus</t>
+  </si>
+  <si>
+    <t>coinBonus</t>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+  </si>
+  <si>
+    <t>dragonExpBonus</t>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus</t>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus</t>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+  </si>
+  <si>
+    <t>gemClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:5:16,resource:stoneClass_3:5:16,resource:ironClass_3:5:16,resource:foodClass_3:5:16,resource:coinClass_3:2:10,speedup:speedup_2:10:16,speedup:speedup_3:5:5,resource:casinoTokenClass_1:1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:15:10,resource:stoneClass_3:15:10,resource:ironClass_3:15:10,resource:foodClass_3:15:10,resource:coinClass_3:5:19,resource:casinoTokenClass_2:1:20,speedup:speedup_3:10:20,speedup:speedup_4:5:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_4:5:15,resource:stoneClass_4:5:15,resource:ironClass_4:5:15,resource:foodClass_4:5:15,resource:coinClass_4:5:15,resource:casinoTokenClass_3:1:10,speedup:speedup_4:10:10,speedup:speedup_5:5:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_5:5:15,resource:stoneClass_5:5:15,resource:ironClass_5:5:15,resource:foodClass_5:5:15,resource:coinClass_5:5:15,resource:casinoTokenClass_4:1:10,speedup:speedup_5:10:10,speedup:speedup_6:5:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenClass_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:redCrystal_2:6,15|dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:greenCrystal_2:6,16|dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:blueCrystal_2:6,15|dragonMaterials:ingo_2:6,dragonMaterials:redSoul_2:6,dragonMaterials:redCrystal_2:6,14|dragonMaterials:ingo_2:6,dragonMaterials:greenSoul_2:6,dragonMaterials:greenCrystal_2:6,14|dragonMaterials:ingo_2:6,dragonMaterials:blueSoul_2:6,dragonMaterials:blueCrystal_2:6,14|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:redCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:greenCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:blueCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:redSoul_3:2,dragonMaterials:redCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:greenSoul_3:2,dragonMaterials:greenCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:blueSoul_3:2,dragonMaterials:blueCrystal_3:2,2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:redCrystal_3:6,12|dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:greenCrystal_3:6,13|dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:blueCrystal_3:6,12|dragonMaterials:ingo_3:6,dragonMaterials:redSoul_3:6,dragonMaterials:redCrystal_3:6,11|dragonMaterials:ingo_3:6,dragonMaterials:greenSoul_3:6,dragonMaterials:greenCrystal_3:6,11|dragonMaterials:ingo_3:6,dragonMaterials:blueSoul_3:6,dragonMaterials:blueCrystal_3:6,11|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:redCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:greenCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:blueCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:redSoul_4:2,dragonMaterials:redCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:greenSoul_4:2,dragonMaterials:greenCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:blueSoul_4:2,dragonMaterials:blueCrystal_4:2,5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:greenCrystal_1:6,28|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:redCrystal_1:6,27|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:blueCrystal_1:6,27|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:redCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:greenCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:blueCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:redSoul_2:2,dragonMaterials:redCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:greenSoul_2:2,dragonMaterials:greenCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:blueSoul_2:2,dragonMaterials:blueCrystal_2:2,3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweepScroll</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:1:9,technologyMaterials:trainingFigure:10:8,technologyMaterials:bowTarget:10:8,technologyMaterials:saddle:10:8,technologyMaterials:ironPart:10:8,items:warSpeedupClass_1:1:9,dragonMaterials:runes_1:1:5,dragonMaterials:redCrystal_1:1:8,dragonMaterials:blueCrystal_1:1:8,dragonMaterials:greenCrystal_1:1:8,dragonMaterials:ingo_1:1:5,dragonMaterials:runes_2:1:2,dragonMaterials:redCrystal_2:1:4,dragonMaterials:blueCrystal_2:1:4,dragonMaterials:greenCrystal_2:1:4,dragonMaterials:ingo_2:1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:5:9,technologyMaterials:trainingFigure:20:8,technologyMaterials:bowTarget:20:8,technologyMaterials:saddle:20:8,technologyMaterials:ironPart:20:8,items:warSpeedupClass_1:3:9,dragonMaterials:runes_2:1:5,dragonMaterials:redCrystal_2:1:8,dragonMaterials:blueCrystal_2:1:8,dragonMaterials:greenCrystal_2:1:8,dragonMaterials:ingo_2:1:5,dragonMaterials:runes_3:1:2,dragonMaterials:redCrystal_3:1:4,dragonMaterials:blueCrystal_3:1:4,dragonMaterials:greenCrystal_3:1:4,dragonMaterials:ingo_3:1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1:9,technologyMaterials:trainingFigure:30:8,technologyMaterials:bowTarget:30:8,technologyMaterials:saddle:30:8,technologyMaterials:ironPart:30:8,items:warSpeedupClass_2:2:9,dragonMaterials:runes_3:1:5,dragonMaterials:redCrystal_3:1:8,dragonMaterials:blueCrystal_3:1:8,dragonMaterials:greenCrystal_3:1:8,dragonMaterials:ingo_3:1:5,dragonMaterials:runes_4:1:2,dragonMaterials:redCrystal_4:1:4,dragonMaterials:blueCrystal_4:1:4,dragonMaterials:greenCrystal_4:1:4,dragonMaterials:ingo_4:1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>newbeeProtect_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>newbeeProtect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>masterOfDefender_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>masterOfDefender_3</t>
-  </si>
-  <si>
-    <t>quarterMaster_1</t>
-  </si>
-  <si>
-    <t>quarterMaster_2</t>
-  </si>
-  <si>
-    <t>quarterMaster_3</t>
-  </si>
-  <si>
-    <t>fogOfTrick_1</t>
-  </si>
-  <si>
-    <t>fogOfTrick_2</t>
-  </si>
-  <si>
-    <t>fogOfTrick_3</t>
-  </si>
-  <si>
-    <t>woodBonus_1</t>
-  </si>
-  <si>
-    <t>woodBonus_2</t>
-  </si>
-  <si>
-    <t>woodBonus_3</t>
-  </si>
-  <si>
-    <t>stoneBonus_1</t>
-  </si>
-  <si>
-    <t>stoneBonus_2</t>
-  </si>
-  <si>
-    <t>stoneBonus_3</t>
-  </si>
-  <si>
-    <t>ironBonus_1</t>
-  </si>
-  <si>
-    <t>ironBonus_2</t>
-  </si>
-  <si>
-    <t>ironBonus_3</t>
-  </si>
-  <si>
-    <t>foodBonus_1</t>
-  </si>
-  <si>
-    <t>foodBonus_2</t>
-  </si>
-  <si>
-    <t>foodBonus_3</t>
-  </si>
-  <si>
-    <t>citizenBonus_1</t>
-  </si>
-  <si>
-    <t>citizenBonus_2</t>
-  </si>
-  <si>
-    <t>citizenBonus_3</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_1</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_2</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_3</t>
-  </si>
-  <si>
-    <t>troopSizeBonus_1</t>
-  </si>
-  <si>
-    <t>troopSizeBonus_2</t>
-  </si>
-  <si>
-    <t>troopSizeBonus_3</t>
-  </si>
-  <si>
-    <t>dragonHpBonus_1</t>
-  </si>
-  <si>
-    <t>dragonHpBonus_2</t>
-  </si>
-  <si>
-    <t>dragonHpBonus_3</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_1</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_2</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_3</t>
-  </si>
-  <si>
-    <t>unitHpBonus_1</t>
-  </si>
-  <si>
-    <t>unitHpBonus_2</t>
-  </si>
-  <si>
-    <t>unitHpBonus_3</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus_1</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus_2</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus_3</t>
-  </si>
-  <si>
-    <t>archerAtkBonus_1</t>
-  </si>
-  <si>
-    <t>archerAtkBonus_2</t>
-  </si>
-  <si>
-    <t>archerAtkBonus_3</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus_1</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus_2</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus_3</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus_1</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus_2</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus_3</t>
-  </si>
-  <si>
-    <t>woodClass_1</t>
-  </si>
-  <si>
-    <t>woodClass_2</t>
-  </si>
-  <si>
-    <t>woodClass_3</t>
-  </si>
-  <si>
-    <t>woodClass_4</t>
-  </si>
-  <si>
-    <t>woodClass_5</t>
-  </si>
-  <si>
-    <t>woodClass_6</t>
-  </si>
-  <si>
-    <t>woodClass_7</t>
-  </si>
-  <si>
-    <t>stoneClass_1</t>
-  </si>
-  <si>
-    <t>stoneClass_2</t>
-  </si>
-  <si>
-    <t>stoneClass_3</t>
-  </si>
-  <si>
-    <t>stoneClass_4</t>
-  </si>
-  <si>
-    <t>stoneClass_5</t>
-  </si>
-  <si>
-    <t>stoneClass_6</t>
-  </si>
-  <si>
-    <t>stoneClass_7</t>
-  </si>
-  <si>
-    <t>ironClass_1</t>
-  </si>
-  <si>
-    <t>ironClass_2</t>
-  </si>
-  <si>
-    <t>ironClass_3</t>
-  </si>
-  <si>
-    <t>ironClass_4</t>
-  </si>
-  <si>
-    <t>ironClass_5</t>
-  </si>
-  <si>
-    <t>ironClass_6</t>
-  </si>
-  <si>
-    <t>ironClass_7</t>
-  </si>
-  <si>
-    <t>foodClass_1</t>
-  </si>
-  <si>
-    <t>foodClass_2</t>
-  </si>
-  <si>
-    <t>foodClass_3</t>
-  </si>
-  <si>
-    <t>foodClass_4</t>
-  </si>
-  <si>
-    <t>foodClass_5</t>
-  </si>
-  <si>
-    <t>foodClass_6</t>
-  </si>
-  <si>
-    <t>foodClass_7</t>
-  </si>
-  <si>
-    <t>coinClass_1</t>
-  </si>
-  <si>
-    <t>coinClass_2</t>
-  </si>
-  <si>
-    <t>coinClass_3</t>
-  </si>
-  <si>
-    <t>coinClass_4</t>
-  </si>
-  <si>
-    <t>coinClass_5</t>
-  </si>
-  <si>
-    <t>coinClass_6</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_2</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_3</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_4</t>
-  </si>
-  <si>
-    <t>speedup_4</t>
-  </si>
-  <si>
-    <t>speedup_5</t>
-  </si>
-  <si>
-    <t>speedup_6</t>
-  </si>
-  <si>
-    <t>speedup_7</t>
-  </si>
-  <si>
-    <t>speedup_8</t>
-  </si>
-  <si>
-    <t>warSpeedupClass_1</t>
-  </si>
-  <si>
-    <t>warSpeedupClass_2</t>
-  </si>
-  <si>
-    <t>masterOfDefender</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>quarterMaster</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>fogOfTrick</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>foodBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonExpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>marchSpeedBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_isAdvancedItem</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_buyPriceInAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_isSell</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_price</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_sellPriceInAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterOfDefender_4</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>movingConstruction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>NONE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stamina_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>archerAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siegeAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinClass_7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenClass_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>casinoTokenClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>quarterMaster</t>
-  </si>
-  <si>
-    <t>woodBonus</t>
-  </si>
-  <si>
-    <t>stoneBonus</t>
-  </si>
-  <si>
-    <t>ironBonus</t>
-  </si>
-  <si>
-    <t>foodBonus</t>
-  </si>
-  <si>
-    <t>coinBonus</t>
-  </si>
-  <si>
-    <t>citizenBonus</t>
-  </si>
-  <si>
-    <t>dragonExpBonus</t>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-  </si>
-  <si>
-    <t>dragonHpBonus</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus</t>
-  </si>
-  <si>
-    <t>unitHpBonus</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus</t>
-  </si>
-  <si>
-    <t>archerAtkBonus</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus</t>
-  </si>
-  <si>
-    <t>gemClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemClass_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:5:16,resource:stoneClass_3:5:16,resource:ironClass_3:5:16,resource:foodClass_3:5:16,resource:coinClass_3:2:10,speedup:speedup_2:10:16,speedup:speedup_3:5:5,resource:casinoTokenClass_1:1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:15:10,resource:stoneClass_3:15:10,resource:ironClass_3:15:10,resource:foodClass_3:15:10,resource:coinClass_3:5:19,resource:casinoTokenClass_2:1:20,speedup:speedup_3:10:20,speedup:speedup_4:5:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_4:5:15,resource:stoneClass_4:5:15,resource:ironClass_4:5:15,resource:foodClass_4:5:15,resource:coinClass_4:5:15,resource:casinoTokenClass_3:1:10,speedup:speedup_4:10:10,speedup:speedup_5:5:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_5:5:15,resource:stoneClass_5:5:15,resource:ironClass_5:5:15,resource:foodClass_5:5:15,resource:coinClass_5:5:15,resource:casinoTokenClass_4:1:10,speedup:speedup_5:10:10,speedup:speedup_6:5:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>casinoTokenClass_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:redCrystal_2:6,15|dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:greenCrystal_2:6,16|dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:blueCrystal_2:6,15|dragonMaterials:ingo_2:6,dragonMaterials:redSoul_2:6,dragonMaterials:redCrystal_2:6,14|dragonMaterials:ingo_2:6,dragonMaterials:greenSoul_2:6,dragonMaterials:greenCrystal_2:6,14|dragonMaterials:ingo_2:6,dragonMaterials:blueSoul_2:6,dragonMaterials:blueCrystal_2:6,14|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:redCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:greenCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:blueCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:redSoul_3:2,dragonMaterials:redCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:greenSoul_3:2,dragonMaterials:greenCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:blueSoul_3:2,dragonMaterials:blueCrystal_3:2,2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:redCrystal_3:6,12|dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:greenCrystal_3:6,13|dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:blueCrystal_3:6,12|dragonMaterials:ingo_3:6,dragonMaterials:redSoul_3:6,dragonMaterials:redCrystal_3:6,11|dragonMaterials:ingo_3:6,dragonMaterials:greenSoul_3:6,dragonMaterials:greenCrystal_3:6,11|dragonMaterials:ingo_3:6,dragonMaterials:blueSoul_3:6,dragonMaterials:blueCrystal_3:6,11|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:redCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:greenCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:blueCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:redSoul_4:2,dragonMaterials:redCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:greenSoul_4:2,dragonMaterials:greenCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:blueSoul_4:2,dragonMaterials:blueCrystal_4:2,5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:greenCrystal_1:6,28|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:redCrystal_1:6,27|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:blueCrystal_1:6,27|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:redCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:greenCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:blueCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:redSoul_2:2,dragonMaterials:redCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:greenSoul_2:2,dragonMaterials:greenCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:blueSoul_2:2,dragonMaterials:blueCrystal_2:2,3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sweepScroll</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redbag_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redbag_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redbag_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_1:1:9,technologyMaterials:trainingFigure:10:8,technologyMaterials:bowTarget:10:8,technologyMaterials:saddle:10:8,technologyMaterials:ironPart:10:8,items:warSpeedupClass_1:1:9,dragonMaterials:runes_1:1:5,dragonMaterials:redCrystal_1:1:8,dragonMaterials:blueCrystal_1:1:8,dragonMaterials:greenCrystal_1:1:8,dragonMaterials:ingo_1:1:5,dragonMaterials:runes_2:1:2,dragonMaterials:redCrystal_2:1:4,dragonMaterials:blueCrystal_2:1:4,dragonMaterials:greenCrystal_2:1:4,dragonMaterials:ingo_2:1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_1:5:9,technologyMaterials:trainingFigure:20:8,technologyMaterials:bowTarget:20:8,technologyMaterials:saddle:20:8,technologyMaterials:ironPart:20:8,items:warSpeedupClass_1:3:9,dragonMaterials:runes_2:1:5,dragonMaterials:redCrystal_2:1:8,dragonMaterials:blueCrystal_2:1:8,dragonMaterials:greenCrystal_2:1:8,dragonMaterials:ingo_2:1:5,dragonMaterials:runes_3:1:2,dragonMaterials:redCrystal_3:1:4,dragonMaterials:blueCrystal_3:1:4,dragonMaterials:greenCrystal_3:1:4,dragonMaterials:ingo_3:1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:1:9,technologyMaterials:trainingFigure:30:8,technologyMaterials:bowTarget:30:8,technologyMaterials:saddle:30:8,technologyMaterials:ironPart:30:8,items:warSpeedupClass_2:2:9,dragonMaterials:runes_3:1:5,dragonMaterials:redCrystal_3:1:8,dragonMaterials:blueCrystal_3:1:8,dragonMaterials:greenCrystal_3:1:8,dragonMaterials:ingo_3:1:5,dragonMaterials:runes_4:1:2,dragonMaterials:redCrystal_4:1:4,dragonMaterials:blueCrystal_4:1:4,dragonMaterials:greenCrystal_4:1:4,dragonMaterials:ingo_4:1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -981,7 +999,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="764">
+  <cellStyleXfs count="788">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -996,6 +1014,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1799,7 +1841,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="764">
+  <cellStyles count="788">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2184,6 +2226,18 @@
     <cellStyle name="超链接" xfId="758" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="760" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="764" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="768" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="770" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="772" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="786" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2561,6 +2615,18 @@
     <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="761" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="787" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3012,7 +3078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -3038,19 +3104,19 @@
         <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
@@ -3058,7 +3124,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3084,13 +3150,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
@@ -3102,7 +3168,7 @@
         <v>75000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -3110,13 +3176,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="1">
         <v>5000</v>
@@ -3128,7 +3194,7 @@
         <v>250000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -3136,7 +3202,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -3162,13 +3228,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1">
         <v>500</v>
@@ -3180,7 +3246,7 @@
         <v>25000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3188,7 +3254,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -3214,7 +3280,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -3549,7 +3615,7 @@
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>42</v>
@@ -3578,13 +3644,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -3596,7 +3662,7 @@
         <v>2500</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -3604,13 +3670,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E23" s="1">
         <v>200</v>
@@ -3622,7 +3688,7 @@
         <v>10000</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -3630,13 +3696,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C24" s="1">
         <v>24</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E24" s="1">
         <v>100</v>
@@ -3648,7 +3714,7 @@
         <v>5000</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -3656,13 +3722,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2">
         <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E25" s="1">
         <v>600</v>
@@ -3674,7 +3740,7 @@
         <v>30000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -3688,7 +3754,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E26" s="1">
         <v>500</v>
@@ -3700,7 +3766,7 @@
         <v>25000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -3714,7 +3780,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E27" s="1">
         <v>4000</v>
@@ -3726,7 +3792,7 @@
         <v>200000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -3740,7 +3806,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E28" s="1">
         <v>12000</v>
@@ -3752,7 +3818,7 @@
         <v>600000</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -3766,7 +3832,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1">
         <v>60</v>
@@ -3778,7 +3844,7 @@
         <v>3000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -3792,7 +3858,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30" s="1">
         <v>440</v>
@@ -3804,7 +3870,7 @@
         <v>22000</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -3818,7 +3884,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E31" s="1">
         <v>1400</v>
@@ -3830,7 +3896,7 @@
         <v>70000</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -3844,7 +3910,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E32" s="1">
         <v>1000</v>
@@ -3856,7 +3922,7 @@
         <v>25000</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -3870,7 +3936,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E33" s="1">
         <v>8000</v>
@@ -3882,7 +3948,7 @@
         <v>200000</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -3896,7 +3962,7 @@
         <v>34</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E34" s="1">
         <v>24000</v>
@@ -3908,12 +3974,12 @@
         <v>600000</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B35" s="7">
         <v>20</v>
@@ -3922,7 +3988,7 @@
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E35" s="1">
         <v>450</v>
@@ -3934,7 +4000,7 @@
         <v>22500</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
@@ -3948,7 +4014,7 @@
         <v>36</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E36" s="1">
         <v>900</v>
@@ -3960,7 +4026,7 @@
         <v>45000</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -3974,7 +4040,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E37" s="1">
         <v>1500</v>
@@ -3986,7 +4052,7 @@
         <v>75000</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -4000,7 +4066,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E38" s="1">
         <v>100</v>
@@ -4012,7 +4078,7 @@
         <v>5000</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
@@ -4026,7 +4092,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E39" s="1">
         <v>600</v>
@@ -4038,7 +4104,7 @@
         <v>30000</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
@@ -4052,7 +4118,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E40" s="1">
         <v>2000</v>
@@ -4064,15 +4130,15 @@
         <v>100000</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C41" s="12">
         <v>41</v>
@@ -4090,21 +4156,21 @@
         <v>250</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C42" s="1">
         <v>42</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E42" s="1">
         <v>150</v>
@@ -4116,21 +4182,21 @@
         <v>7500</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C43" s="2">
         <v>43</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E43" s="1">
         <v>360</v>
@@ -4142,21 +4208,21 @@
         <v>18000</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C44" s="1">
         <v>44</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E44" s="1">
         <v>750</v>
@@ -4168,7 +4234,7 @@
         <v>37500</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1">
@@ -4188,10 +4254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4208,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>39</v>
@@ -4223,24 +4289,24 @@
         <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -4262,29 +4328,29 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>48</v>
+      <c r="A3" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B3" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="1">
+        <v>140</v>
+      </c>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G3" s="1">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>44</v>
@@ -4292,28 +4358,28 @@
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="B4" s="1">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="1">
+        <v>140</v>
+      </c>
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>44</v>
+      <c r="E4" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="F4" s="1">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="G4" s="1">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>44</v>
@@ -4321,28 +4387,28 @@
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="2">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G5" s="1">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="H5" s="1">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>44</v>
@@ -4350,28 +4416,28 @@
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="B6" s="1">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="1">
+        <v>72</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="1">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="G6" s="1">
-        <v>50000</v>
+        <v>120000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>120000</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>44</v>
@@ -4379,28 +4445,28 @@
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="1">
+        <v>142</v>
+      </c>
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G7" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H7" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>44</v>
@@ -4408,28 +4474,28 @@
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="7">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="B8" s="1">
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H8" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>44</v>
@@ -4437,28 +4503,28 @@
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G9" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H9" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>44</v>
@@ -4466,28 +4532,28 @@
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="1">
+        <v>143</v>
+      </c>
+      <c r="D10" s="2">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>44</v>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G10" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H10" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>44</v>
@@ -4495,28 +4561,28 @@
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="7">
-        <v>8</v>
+        <v>52</v>
+      </c>
+      <c r="B11" s="1">
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H11" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>44</v>
@@ -4524,28 +4590,28 @@
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="1">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="B12" s="7">
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="1">
+        <v>143</v>
+      </c>
+      <c r="D12" s="2">
         <v>11</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H12" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>44</v>
@@ -4553,28 +4619,28 @@
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B13" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>44</v>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F13" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G13" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H13" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>44</v>
@@ -4582,28 +4648,28 @@
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="7">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>147</v>
+        <v>55</v>
+      </c>
+      <c r="B14" s="1">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H14" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>44</v>
@@ -4611,28 +4677,28 @@
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="1">
-        <v>24</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="1">
+        <v>56</v>
+      </c>
+      <c r="B15" s="7">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="2">
         <v>14</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H15" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>44</v>
@@ -4640,28 +4706,28 @@
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="1">
+        <v>145</v>
+      </c>
+      <c r="D16" s="2">
         <v>15</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>44</v>
+      <c r="E16" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F16" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G16" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H16" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>44</v>
@@ -4669,28 +4735,28 @@
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="7">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="2">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="1">
         <v>16</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H17" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>44</v>
@@ -4698,28 +4764,28 @@
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="1">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="1">
+        <v>59</v>
+      </c>
+      <c r="B18" s="7">
+        <v>72</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="2">
         <v>17</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>43</v>
+      <c r="E18" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G18" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H18" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>44</v>
@@ -4727,28 +4793,28 @@
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="1">
+        <v>146</v>
+      </c>
+      <c r="D19" s="2">
         <v>18</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>43</v>
+      <c r="E19" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G19" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H19" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>44</v>
@@ -4756,28 +4822,28 @@
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="7">
-        <v>8</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>149</v>
+        <v>61</v>
+      </c>
+      <c r="B20" s="1">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>45</v>
+      <c r="E20" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F20" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H20" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>44</v>
@@ -4785,13 +4851,13 @@
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="1">
-        <v>24</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>149</v>
+        <v>62</v>
+      </c>
+      <c r="B21" s="7">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
@@ -4800,13 +4866,13 @@
         <v>43</v>
       </c>
       <c r="F21" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G21" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H21" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>44</v>
@@ -4814,28 +4880,28 @@
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B22" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="1">
+        <v>147</v>
+      </c>
+      <c r="D22" s="2">
         <v>21</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>43</v>
+      <c r="E22" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F22" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G22" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H22" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>44</v>
@@ -4843,57 +4909,57 @@
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="7">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>172</v>
+        <v>64</v>
+      </c>
+      <c r="B23" s="1">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>45</v>
+      <c r="E23" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F23" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G23" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H23" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="1">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="A24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="7">
+        <v>72</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="2">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G24" s="1">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="H24" s="1">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>44</v>
@@ -4901,57 +4967,57 @@
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B25" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D25" s="1">
         <v>24</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>43</v>
+      <c r="E25" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F25" s="1">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="G25" s="1">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H25" s="1">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="7">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>150</v>
+      <c r="A26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D26" s="2">
         <v>25</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>45</v>
+      <c r="E26" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F26" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G26" s="1">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="H26" s="1">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>44</v>
@@ -4959,28 +5025,28 @@
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="1">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="1">
+        <v>172</v>
+      </c>
+      <c r="B27" s="7">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="2">
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="1">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="G27" s="1">
-        <v>50000</v>
+        <v>120000</v>
       </c>
       <c r="H27" s="1">
-        <v>50000</v>
+        <v>120000</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>44</v>
@@ -4988,28 +5054,28 @@
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B28" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="1">
+        <v>148</v>
+      </c>
+      <c r="D28" s="2">
         <v>27</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>43</v>
+      <c r="E28" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F28" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G28" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H28" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>44</v>
@@ -5017,28 +5083,28 @@
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="2">
+        <v>24</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="1">
         <v>28</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>45</v>
+      <c r="E29" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F29" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G29" s="1">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="H29" s="1">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>44</v>
@@ -5046,28 +5112,28 @@
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="7">
         <v>72</v>
       </c>
-      <c r="B30" s="1">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="2">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="1">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G30" s="1">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="H30" s="1">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>44</v>
@@ -5075,28 +5141,28 @@
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="7">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="1">
+        <v>149</v>
+      </c>
+      <c r="D31" s="2">
         <v>30</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>43</v>
+      <c r="E31" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F31" s="1">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G31" s="1">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="H31" s="1">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>44</v>
@@ -5104,28 +5170,28 @@
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1">
-        <v>8</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>175</v>
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D32" s="2">
         <v>31</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>45</v>
+      <c r="E32" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F32" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G32" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="H32" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>44</v>
@@ -5133,13 +5199,13 @@
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="1">
-        <v>24</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>175</v>
+        <v>71</v>
+      </c>
+      <c r="B33" s="7">
+        <v>72</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D33" s="1">
         <v>32</v>
@@ -5148,13 +5214,13 @@
         <v>43</v>
       </c>
       <c r="F33" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="G33" s="1">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="H33" s="1">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>44</v>
@@ -5162,28 +5228,28 @@
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="7">
         <v>72</v>
       </c>
+      <c r="B34" s="1">
+        <v>8</v>
+      </c>
       <c r="C34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="1">
+        <v>173</v>
+      </c>
+      <c r="D34" s="2">
         <v>33</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>43</v>
+      <c r="E34" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F34" s="1">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G34" s="1">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="H34" s="1">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>44</v>
@@ -5191,28 +5257,28 @@
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>176</v>
+        <v>24</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>45</v>
+      <c r="E35" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F35" s="1">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G35" s="1">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="H35" s="1">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>44</v>
@@ -5220,28 +5286,28 @@
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="1">
-        <v>24</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="1">
+        <v>74</v>
+      </c>
+      <c r="B36" s="7">
+        <v>72</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="2">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="1">
-        <v>1000</v>
+        <v>3200</v>
       </c>
       <c r="G36" s="1">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="H36" s="1">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>44</v>
@@ -5249,28 +5315,28 @@
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="7">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D37" s="1">
         <v>36</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>43</v>
+      <c r="E37" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F37" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G37" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H37" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>44</v>
@@ -5278,28 +5344,28 @@
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1">
-        <v>8</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>152</v>
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D38" s="2">
         <v>37</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>45</v>
+      <c r="E38" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F38" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G38" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H38" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>44</v>
@@ -5307,28 +5373,28 @@
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="1">
-        <v>24</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="1">
+        <v>77</v>
+      </c>
+      <c r="B39" s="7">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="2">
         <v>38</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G39" s="1">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="H39" s="1">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>44</v>
@@ -5336,28 +5402,28 @@
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="7">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="1">
+        <v>150</v>
+      </c>
+      <c r="D40" s="2">
         <v>39</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>43</v>
+      <c r="E40" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F40" s="1">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="G40" s="1">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H40" s="1">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>44</v>
@@ -5365,57 +5431,57 @@
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="2">
+        <v>150</v>
+      </c>
+      <c r="D41" s="1">
         <v>40</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>45</v>
+      <c r="E41" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F41" s="1">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G41" s="1">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="H41" s="1">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="1">
-        <v>24</v>
+      <c r="A42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="7">
+        <v>72</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="1">
+        <v>150</v>
+      </c>
+      <c r="D42" s="2">
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F42" s="1">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="G42" s="1">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="H42" s="1">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>44</v>
@@ -5423,28 +5489,28 @@
     </row>
     <row r="43" spans="1:9" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="7">
-        <v>72</v>
+        <v>81</v>
+      </c>
+      <c r="B43" s="1">
+        <v>8</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="1">
+        <v>175</v>
+      </c>
+      <c r="D43" s="2">
         <v>42</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>43</v>
+      <c r="E43" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F43" s="1">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G43" s="1">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="H43" s="1">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>44</v>
@@ -5452,28 +5518,28 @@
     </row>
     <row r="44" spans="1:9" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>153</v>
+        <v>24</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="D44" s="2">
         <v>43</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>45</v>
+      <c r="E44" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F44" s="1">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G44" s="1">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="H44" s="1">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>44</v>
@@ -5481,13 +5547,13 @@
     </row>
     <row r="45" spans="1:9" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="1">
-        <v>24</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>153</v>
+        <v>83</v>
+      </c>
+      <c r="B45" s="7">
+        <v>72</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="D45" s="1">
         <v>44</v>
@@ -5496,13 +5562,13 @@
         <v>43</v>
       </c>
       <c r="F45" s="1">
-        <v>1000</v>
+        <v>3200</v>
       </c>
       <c r="G45" s="1">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="H45" s="1">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>44</v>
@@ -5510,28 +5576,28 @@
     </row>
     <row r="46" spans="1:9" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="7">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="B46" s="1">
+        <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="1">
+        <v>151</v>
+      </c>
+      <c r="D46" s="2">
         <v>45</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>43</v>
+      <c r="E46" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F46" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G46" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H46" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>44</v>
@@ -5539,28 +5605,28 @@
     </row>
     <row r="47" spans="1:9" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B47" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D47" s="2">
         <v>46</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>45</v>
+      <c r="E47" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F47" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G47" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H47" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>44</v>
@@ -5568,28 +5634,28 @@
     </row>
     <row r="48" spans="1:9" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="1">
-        <v>24</v>
+        <v>86</v>
+      </c>
+      <c r="B48" s="7">
+        <v>72</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="1">
+        <v>151</v>
+      </c>
+      <c r="D48" s="2">
         <v>47</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F48" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H48" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>44</v>
@@ -5597,28 +5663,28 @@
     </row>
     <row r="49" spans="1:9" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="7">
-        <v>72</v>
+        <v>87</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D49" s="1">
         <v>48</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>43</v>
+      <c r="E49" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F49" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G49" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H49" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>44</v>
@@ -5626,28 +5692,28 @@
     </row>
     <row r="50" spans="1:9" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B50" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D50" s="2">
         <v>49</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>45</v>
+      <c r="E50" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F50" s="1">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="G50" s="1">
-        <v>27500</v>
+        <v>50000</v>
       </c>
       <c r="H50" s="1">
-        <v>27500</v>
+        <v>50000</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>44</v>
@@ -5655,28 +5721,28 @@
     </row>
     <row r="51" spans="1:9" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="1">
-        <v>24</v>
+        <v>89</v>
+      </c>
+      <c r="B51" s="7">
+        <v>72</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="1">
+        <v>176</v>
+      </c>
+      <c r="D51" s="2">
         <v>50</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F51" s="1">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="G51" s="1">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="H51" s="1">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>44</v>
@@ -5684,28 +5750,28 @@
     </row>
     <row r="52" spans="1:9" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="7">
-        <v>72</v>
+        <v>90</v>
+      </c>
+      <c r="B52" s="1">
+        <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D52" s="1">
+        <v>177</v>
+      </c>
+      <c r="D52" s="2">
         <v>51</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>43</v>
+      <c r="E52" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F52" s="1">
-        <v>2200</v>
+        <v>550</v>
       </c>
       <c r="G52" s="1">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H52" s="1">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>44</v>
@@ -5713,28 +5779,28 @@
     </row>
     <row r="53" spans="1:9" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D53" s="2">
+        <v>177</v>
+      </c>
+      <c r="D53" s="1">
         <v>52</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>45</v>
+      <c r="E53" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F53" s="1">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G53" s="1">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="H53" s="1">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>44</v>
@@ -5742,28 +5808,28 @@
     </row>
     <row r="54" spans="1:9" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="1">
-        <v>24</v>
+        <v>92</v>
+      </c>
+      <c r="B54" s="7">
+        <v>72</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="1">
+        <v>177</v>
+      </c>
+      <c r="D54" s="2">
         <v>53</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F54" s="1">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="G54" s="1">
-        <v>60000</v>
+        <v>110000</v>
       </c>
       <c r="H54" s="1">
-        <v>60000</v>
+        <v>110000</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>44</v>
@@ -5771,30 +5837,88 @@
     </row>
     <row r="55" spans="1:9" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="7">
+        <v>93</v>
+      </c>
+      <c r="B55" s="1">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="2">
+        <v>54</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="1">
+        <v>600</v>
+      </c>
+      <c r="G55" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H55" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="20" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="1">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="2">
+        <v>55</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G56" s="1">
+        <v>60000</v>
+      </c>
+      <c r="H56" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="20" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="7">
         <v>72</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D55" s="1">
-        <v>54</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="C57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="1">
+        <v>56</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F57" s="1">
         <v>2400</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G57" s="1">
         <v>120000</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H57" s="1">
         <v>120000</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5832,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>39</v>
@@ -5844,18 +5968,18 @@
         <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="7">
         <v>10</v>
@@ -5864,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" s="7">
         <v>10</v>
@@ -5876,12 +6000,12 @@
         <v>500</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" s="7">
         <v>100</v>
@@ -5890,7 +6014,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3" s="7">
         <v>100</v>
@@ -5902,12 +6026,12 @@
         <v>5000</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" s="7">
         <v>1000</v>
@@ -5916,7 +6040,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E4" s="7">
         <v>1000</v>
@@ -5928,12 +6052,12 @@
         <v>50000</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1">
         <v>0.1</v>
@@ -5959,7 +6083,7 @@
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -5985,7 +6109,7 @@
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -6011,7 +6135,7 @@
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1">
         <v>50</v>
@@ -6037,7 +6161,7 @@
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1">
         <v>150</v>
@@ -6063,7 +6187,7 @@
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1">
         <v>500</v>
@@ -6089,7 +6213,7 @@
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" s="7">
         <v>1500</v>
@@ -6115,7 +6239,7 @@
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1">
         <v>0.1</v>
@@ -6141,7 +6265,7 @@
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -6167,7 +6291,7 @@
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1">
         <v>10</v>
@@ -6193,7 +6317,7 @@
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1">
         <v>50</v>
@@ -6219,7 +6343,7 @@
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1">
         <v>150</v>
@@ -6245,7 +6369,7 @@
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1">
         <v>500</v>
@@ -6271,7 +6395,7 @@
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" s="7">
         <v>1500</v>
@@ -6297,7 +6421,7 @@
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1">
         <v>0.1</v>
@@ -6323,7 +6447,7 @@
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -6332,7 +6456,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
@@ -6344,12 +6468,12 @@
         <v>500</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B21" s="1">
         <v>10</v>
@@ -6358,7 +6482,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1">
         <v>40</v>
@@ -6370,12 +6494,12 @@
         <v>2000</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" s="1">
         <v>50</v>
@@ -6384,7 +6508,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E22" s="1">
         <v>160</v>
@@ -6396,12 +6520,12 @@
         <v>8000</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B23" s="1">
         <v>150</v>
@@ -6410,7 +6534,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E23" s="1">
         <v>400</v>
@@ -6422,12 +6546,12 @@
         <v>20000</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" s="1">
         <v>500</v>
@@ -6436,7 +6560,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E24" s="1">
         <v>1200</v>
@@ -6448,12 +6572,12 @@
         <v>60000</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" s="7">
         <v>1500</v>
@@ -6462,7 +6586,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E25" s="1">
         <v>3300</v>
@@ -6474,12 +6598,12 @@
         <v>165000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B26" s="1">
         <v>0.1</v>
@@ -6488,7 +6612,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -6500,12 +6624,12 @@
         <v>50</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -6514,7 +6638,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E27" s="1">
         <v>10</v>
@@ -6526,12 +6650,12 @@
         <v>500</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B28" s="1">
         <v>10</v>
@@ -6540,7 +6664,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E28" s="1">
         <v>40</v>
@@ -6552,12 +6676,12 @@
         <v>2000</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B29" s="1">
         <v>50</v>
@@ -6566,7 +6690,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1">
         <v>160</v>
@@ -6578,12 +6702,12 @@
         <v>8000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B30" s="1">
         <v>150</v>
@@ -6592,7 +6716,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30" s="1">
         <v>400</v>
@@ -6604,12 +6728,12 @@
         <v>20000</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" s="1">
         <v>500</v>
@@ -6618,7 +6742,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E31" s="7">
         <v>1200</v>
@@ -6630,12 +6754,12 @@
         <v>60000</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" s="7">
         <v>1500</v>
@@ -6644,7 +6768,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E32" s="7">
         <v>3300</v>
@@ -6656,12 +6780,12 @@
         <v>165000</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" s="7">
         <v>0.1</v>
@@ -6670,7 +6794,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E33" s="7">
         <v>2</v>
@@ -6682,12 +6806,12 @@
         <v>100</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="7">
         <v>2</v>
@@ -6696,7 +6820,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E34" s="7">
         <v>20</v>
@@ -6708,12 +6832,12 @@
         <v>1000</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" s="7">
         <v>10</v>
@@ -6722,7 +6846,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E35" s="7">
         <v>80</v>
@@ -6734,12 +6858,12 @@
         <v>4000</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B36" s="7">
         <v>50</v>
@@ -6748,7 +6872,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E36" s="7">
         <v>320</v>
@@ -6760,12 +6884,12 @@
         <v>16000</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" s="7">
         <v>150</v>
@@ -6774,7 +6898,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E37" s="7">
         <v>800</v>
@@ -6786,12 +6910,12 @@
         <v>40000</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" s="7">
         <v>500</v>
@@ -6800,7 +6924,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E38" s="7">
         <v>2400</v>
@@ -6812,12 +6936,12 @@
         <v>120000</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B39" s="7">
         <v>1500</v>
@@ -6826,7 +6950,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E39" s="7">
         <v>6600</v>
@@ -6838,12 +6962,12 @@
         <v>330000</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B40" s="7">
         <v>0.2</v>
@@ -6869,7 +6993,7 @@
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B41" s="7">
         <v>0.5</v>
@@ -6895,7 +7019,7 @@
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B42" s="7">
         <v>1</v>
@@ -6916,12 +7040,12 @@
         <v>20000</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B43" s="7">
         <v>5</v>
@@ -6930,7 +7054,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E43" s="7">
         <v>250</v>
@@ -6942,12 +7066,12 @@
         <v>12500</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B44" s="7">
         <v>15</v>
@@ -6968,12 +7092,12 @@
         <v>25000</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B45" s="7">
         <v>60</v>
@@ -6994,12 +7118,12 @@
         <v>75000</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B46" s="7">
         <v>180</v>
@@ -7020,12 +7144,12 @@
         <v>180000</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B47" s="7">
         <v>500</v>
@@ -7046,7 +7170,7 @@
         <v>400000</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -7083,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>39</v>
@@ -7095,18 +7219,18 @@
         <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -7115,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -7127,12 +7251,12 @@
         <v>250</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -7141,7 +7265,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" s="1">
         <v>20</v>
@@ -7153,12 +7277,12 @@
         <v>1000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -7167,7 +7291,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
@@ -7179,12 +7303,12 @@
         <v>2500</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
@@ -7193,7 +7317,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E5" s="1">
         <v>130</v>
@@ -7205,12 +7329,12 @@
         <v>6500</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1">
         <v>180</v>
@@ -7219,7 +7343,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="1">
         <v>300</v>
@@ -7231,12 +7355,12 @@
         <v>15000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" s="1">
         <v>480</v>
@@ -7245,7 +7369,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E7" s="1">
         <v>650</v>
@@ -7257,12 +7381,12 @@
         <v>32500</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="7">
         <v>900</v>
@@ -7271,7 +7395,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1">
         <v>1000</v>
@@ -7283,12 +7407,12 @@
         <v>50000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="1">
         <v>1440</v>
@@ -7309,12 +7433,12 @@
         <v>75000</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="1">
         <v>0.25</v>
@@ -7335,12 +7459,12 @@
         <v>7500</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
@@ -7361,7 +7485,7 @@
         <v>22500</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -7494,18 +7618,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B2" s="11">
         <v>0.25</v>
@@ -7514,7 +7638,7 @@
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B3" s="11">
         <v>0.5</v>
@@ -7523,7 +7647,7 @@
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11">
         <v>0.5</v>
@@ -7532,7 +7656,7 @@
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11">
         <v>0.5</v>
@@ -7541,7 +7665,7 @@
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B6" s="11">
         <v>0.5</v>
@@ -7550,7 +7674,7 @@
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B7" s="11">
         <v>0.5</v>
@@ -7559,7 +7683,7 @@
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B8" s="11">
         <v>0.5</v>
@@ -7568,7 +7692,7 @@
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B9" s="11">
         <v>0.3</v>
@@ -7577,7 +7701,7 @@
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B10" s="11">
         <v>0.3</v>
@@ -7586,7 +7710,7 @@
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B11" s="11">
         <v>0.3</v>
@@ -7595,7 +7719,7 @@
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="11">
         <v>0.3</v>
@@ -7604,7 +7728,7 @@
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B13" s="11">
         <v>0.2</v>
@@ -7613,7 +7737,7 @@
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="11">
         <v>0.2</v>
@@ -7622,7 +7746,7 @@
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15" s="11">
         <v>0.2</v>
@@ -7631,7 +7755,7 @@
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B16" s="11">
         <v>0.2</v>
@@ -7640,7 +7764,7 @@
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" s="11">
         <v>0.2</v>

--- a/Dragonfall/gameData/shared/Items.xlsx
+++ b/Dragonfall/gameData/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="0" windowWidth="35720" windowHeight="17700" tabRatio="381" activeTab="1"/>
+    <workbookView xWindow="2420" yWindow="1080" windowWidth="25600" windowHeight="16060" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -999,7 +999,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="788">
+  <cellStyleXfs count="812">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1014,6 +1014,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1841,14 +1865,418 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="788">
+  <cellStyles count="812">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="795" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="797" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="799" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="811" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
@@ -2238,398 +2666,18 @@
     <cellStyle name="超链接" xfId="782" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="784" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="786" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="761" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="763" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="765" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="767" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="769" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="771" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="773" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="775" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="777" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="779" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="781" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="783" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="785" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="787" builtinId="9" hidden="1"/>
-    <cellStyle name="解释性文本" xfId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="超链接" xfId="788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="794" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="796" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="798" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="810" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3078,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3162,10 +3210,10 @@
         <v>1500</v>
       </c>
       <c r="F3" s="1">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="G3" s="1">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>158</v>
@@ -3188,10 +3236,10 @@
         <v>5000</v>
       </c>
       <c r="F4" s="1">
-        <v>250000</v>
+        <v>225000</v>
       </c>
       <c r="G4" s="1">
-        <v>250000</v>
+        <v>225000</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>159</v>
@@ -3292,10 +3340,10 @@
         <v>2600</v>
       </c>
       <c r="F8" s="1">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="G8" s="1">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>44</v>
@@ -3994,10 +4042,10 @@
         <v>450</v>
       </c>
       <c r="F35" s="1">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="G35" s="1">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>164</v>
@@ -4072,10 +4120,10 @@
         <v>100</v>
       </c>
       <c r="F38" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G38" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>164</v>
@@ -4098,10 +4146,10 @@
         <v>600</v>
       </c>
       <c r="F39" s="1">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="G39" s="1">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>164</v>
@@ -4150,10 +4198,10 @@
         <v>50</v>
       </c>
       <c r="F41" s="12">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G41" s="12">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>219</v>
@@ -4256,8 +4304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showRuler="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5594,10 +5642,10 @@
         <v>500</v>
       </c>
       <c r="G46" s="1">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="H46" s="1">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>44</v>
@@ -5681,10 +5729,10 @@
         <v>500</v>
       </c>
       <c r="G49" s="1">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="H49" s="1">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>44</v>
@@ -5768,10 +5816,10 @@
         <v>550</v>
       </c>
       <c r="G52" s="1">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="H52" s="1">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>44</v>
@@ -5855,10 +5903,10 @@
         <v>600</v>
       </c>
       <c r="G55" s="1">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="H55" s="1">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>44</v>
@@ -5938,8 +5986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F10"/>
+    <sheetView showRuler="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7190,7 +7238,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7453,10 +7501,10 @@
         <v>120</v>
       </c>
       <c r="F10" s="1">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="G10" s="1">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>165</v>
@@ -7479,10 +7527,10 @@
         <v>200</v>
       </c>
       <c r="F11" s="1">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="G11" s="1">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>165</v>
